--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Generic.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Generic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -57,25 +57,19 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Automatable</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>PB Generic</t>
   </si>
   <si>
-    <t><![CDATA[wait(3);
+    <t>wait(3);
 PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,<StartPage value="http://127.0.0.1:8082/app/" name="Menu"/>);
-ChangeConfigxml(Configuration,WebServer,<WebServer>endl  <Enabled VALUE="1"/>endl  <Port VALUE="8082"/>endl  <WebFolder VALUE="\\auto\\PB\"/>endl  <Public VALUE="1"/>endl</WebServer>endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,<FullScreen value="0"/>);
-ChangeConfigxml(Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,<PreloadLegacyActiveX value="1"/>);
-PushConfigxml;]]></t>
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+ChangeConfigxml(Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,&lt;PreloadLegacyActiveX value="1"/&gt;);
+PushConfigxml;</t>
   </si>
   <si>
     <t>Generic ActiveX Object UUID</t>
@@ -129,7 +123,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -664,20 +657,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -691,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -721,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6" t="s">
@@ -731,15 +724,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="158.25" thickBot="1">
@@ -752,21 +743,19 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="158.25" thickBot="1">
@@ -781,19 +770,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -812,9 +798,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Generic.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Generic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -76,6 +76,37 @@
   </si>
   <si>
     <t>Generic ActiveX Object OEM Information String for the terminal"</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(generic_test_link);
+validate2;
+link_Click(activex_link);
+validate3;
+wait(1);
+SelectTestToRun(VT056_1357_string);
+wait(1);
+ClickRunTest(runtest_top_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Module Index Page
+};
+validate3
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Generic
+};
+validate4
+{
+validate_SystemProperties=oeminfo
+};</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -90,6 +121,10 @@
 {
 validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Generic
 };
+validate4
+{
+validate_SystemProperties=uuid
+};
 </t>
   </si>
   <si>
@@ -103,20 +138,7 @@
 SelectTestToRun(VT056_0779_string);
 wait(1);
 ClickRunTest(runtest_top_xpath);
-CheckGenericValues(uuid);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(generic_test_link);
-validate2;
-link_Click(activex_link);
-validate3;
-wait(1);
-SelectTestToRun(VT056_1357_string);
-wait(1);
-ClickRunTest(runtest_top_xpath);
-CheckGenericValues(oeminfo);</t>
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -658,7 +680,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -716,7 +738,9 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
@@ -733,7 +757,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="158.25" thickBot="1">
+    <row r="3" spans="1:11" ht="203.25" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -741,7 +765,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,16 +775,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="158.25" thickBot="1">
+    <row r="4" spans="1:11" ht="192" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -776,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
